--- a/AudioAssetList.xlsx
+++ b/AudioAssetList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Libraries\Projects\UnityStuff\GunCube\repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2708D63A-0F56-43E0-8DB6-85F103963E29}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0B0766-AF72-4379-AEA6-6B657DBDAE9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2685" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
   <si>
     <t>Audio</t>
   </si>
@@ -40,6 +41,99 @@
   </si>
   <si>
     <t>Implemented</t>
+  </si>
+  <si>
+    <t>Cannon Fire</t>
+  </si>
+  <si>
+    <t>Cannon Hit</t>
+  </si>
+  <si>
+    <t>Taking Damage</t>
+  </si>
+  <si>
+    <t>Ship Destroyed</t>
+  </si>
+  <si>
+    <t>Splash</t>
+  </si>
+  <si>
+    <t>"Yarr"</t>
+  </si>
+  <si>
+    <t>"Ahoy"</t>
+  </si>
+  <si>
+    <t>Ship's bell</t>
+  </si>
+  <si>
+    <t>Ship's bell rings when enemy gets close</t>
+  </si>
+  <si>
+    <t>When the player starts taking damage</t>
+  </si>
+  <si>
+    <t>When an object hits water</t>
+  </si>
+  <si>
+    <t>Overlay for destroyed ships</t>
+  </si>
+  <si>
+    <t>Game starting</t>
+  </si>
+  <si>
+    <t>BGM</t>
+  </si>
+  <si>
+    <t>Game Over</t>
+  </si>
+  <si>
+    <t>Seagulls</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Foley</t>
+  </si>
+  <si>
+    <t>Character</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Waves</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Gold Coins Kaching</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Button Click</t>
+  </si>
+  <si>
+    <t>End screen and upgrades</t>
+  </si>
+  <si>
+    <t>Pressing a button</t>
+  </si>
+  <si>
+    <t>Should have multiple to avoid fatigue</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Edited</t>
   </si>
 </sst>
 </file>
@@ -110,13 +204,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A7D69890-011F-4C27-A653-50C1F6D0CC4A}" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
-  <autoFilter ref="A1:E33" xr:uid="{4E560AEF-7EC3-4EED-949D-49045C8AD975}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A7D69890-011F-4C27-A653-50C1F6D0CC4A}" name="Table1" displayName="Table1" ref="A1:G33" totalsRowShown="0">
+  <autoFilter ref="A1:G33" xr:uid="{4E560AEF-7EC3-4EED-949D-49045C8AD975}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G16">
+    <sortCondition ref="B1:B33"/>
+  </sortState>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{C8F58C9F-AF89-422D-9D9E-3DCF83ED44DE}" name="Audio"/>
+    <tableColumn id="6" xr3:uid="{B71F26FF-5102-489A-AE84-A4E6F9EF7CB4}" name="Type"/>
     <tableColumn id="2" xr3:uid="{92C81ED4-9C9E-4C06-BD9F-6DC17C2CFCDA}" name="Description"/>
     <tableColumn id="3" xr3:uid="{24C384DA-65F8-49B5-A7D1-345CA1EDC95F}" name="Interaction"/>
     <tableColumn id="4" xr3:uid="{5E1BE05F-2EB5-4EF6-AD90-CC9B1FE6899A}" name="Acquired"/>
+    <tableColumn id="7" xr3:uid="{5A26BB0C-09AC-4092-8387-EF0CC41E6B53}" name="Edited"/>
     <tableColumn id="5" xr3:uid="{B736153F-A3F4-468B-B068-409F99D217B8}" name="Implemented"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -386,46 +485,249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D33">
+  <conditionalFormatting sqref="E2:F33">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="y">
-      <formula>NOT(ISERROR(SEARCH("y",D2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("y",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E33">
+  <conditionalFormatting sqref="G2:G33">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="y">
-      <formula>NOT(ISERROR(SEARCH("y",E2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("y",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AudioAssetList.xlsx
+++ b/AudioAssetList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Libraries\Projects\UnityStuff\GunCube\repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0B0766-AF72-4379-AEA6-6B657DBDAE9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9962B3CE-22E0-4B0C-B7E5-A023593343BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2685" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>Audio</t>
   </si>
@@ -488,7 +487,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,6 +656,9 @@
       <c r="F11" t="s">
         <v>34</v>
       </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -706,6 +708,15 @@
       </c>
       <c r="B15" t="s">
         <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">

--- a/AudioAssetList.xlsx
+++ b/AudioAssetList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Libraries\Projects\UnityStuff\GunCube\repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9962B3CE-22E0-4B0C-B7E5-A023593343BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A8D060-621A-49C3-8D9B-80BAF818646B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2685" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
   <si>
     <t>Audio</t>
   </si>
@@ -487,7 +487,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,6 +555,12 @@
       <c r="E4" t="s">
         <v>34</v>
       </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -566,6 +572,12 @@
       <c r="E5" t="s">
         <v>34</v>
       </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -594,6 +606,9 @@
       <c r="F7" t="s">
         <v>34</v>
       </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -608,6 +623,9 @@
       <c r="F8" t="s">
         <v>34</v>
       </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -625,6 +643,9 @@
       <c r="F9" t="s">
         <v>34</v>
       </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -639,6 +660,9 @@
       <c r="F10" t="s">
         <v>34</v>
       </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -687,6 +711,15 @@
       <c r="C13" t="s">
         <v>31</v>
       </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -699,6 +732,12 @@
         <v>32</v>
       </c>
       <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
         <v>34</v>
       </c>
     </row>
